--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Specification_Subfunction_unit(REST)_(Subfunction_ID)_(Subfunction_Name).xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_Architecture_Design/020_Development_Standards/020_Test_Standards/Unit_Test_Specification_Subfunction_unit(REST)_(Subfunction_ID)_(Subfunction_Name).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{02829DF6-5115-45D6-AA54-54367AEC798A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7164DE-F9BA-42BA-9DB4-1FC2C7F17B1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" state="hidden" r:id="rId1"/>
@@ -30,127 +30,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{DDC6FB44-FBE1-44F6-B1B7-2FA9B298BF40}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{A34147D1-7DED-4BAB-B33F-99933054880A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{52E37FA7-71C9-4266-9DAE-63584499A04E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現ですので、
-「scrutiny」ではなく「validate、validation」
-で統一していただけますでしょうか。
-他のセルについても修正をお願いいたします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{18754F9D-6246-48B6-9885-218A6B4502C5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」としてください。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
@@ -320,9 +199,6 @@
   </si>
   <si>
     <t>Response message specification</t>
-  </si>
-  <si>
-    <t>Record configuration</t>
   </si>
   <si>
     <t>(a) External interface design document
@@ -470,6 +346,10 @@
   </si>
   <si>
     <t>Record structure</t>
+  </si>
+  <si>
+    <t>Record structure</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -481,7 +361,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -571,21 +451,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2533,9 +2398,9 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="6.58203125" style="1"/>
+    <col min="1" max="16384" width="6.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -2621,7 +2486,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="19">
+    <row r="32" spans="6:11" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -2629,12 +2494,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="19">
+    <row r="33" spans="6:10" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="19">
+    <row r="34" spans="6:10" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
@@ -3143,9 +3008,9 @@
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="22"/>
+    <col min="1" max="16384" width="3.625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
@@ -4339,7 +4204,7 @@
       <c r="AH33" s="120"/>
       <c r="AI33" s="121"/>
     </row>
-    <row r="34" spans="1:35" ht="14">
+    <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
@@ -4531,29 +4396,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="8.58203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.58203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="29" customWidth="1"/>
     <col min="6" max="6" width="6" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.58203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="27.625" style="29" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="28" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.58203125" style="28" customWidth="1"/>
-    <col min="12" max="12" width="20.58203125" style="28" customWidth="1"/>
-    <col min="13" max="16" width="8.58203125" style="28" customWidth="1"/>
+    <col min="10" max="11" width="30.625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="28" customWidth="1"/>
+    <col min="13" max="16" width="8.625" style="28" customWidth="1"/>
     <col min="17" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -4564,7 +4427,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4579,7 +4442,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>21</v>
@@ -4590,7 +4453,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="28" t="s">
         <v>23</v>
@@ -4599,7 +4462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:18" ht="12.75" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -4620,7 +4483,7 @@
       <c r="R8" s="30"/>
     </row>
     <row r="9" spans="1:18" ht="21.75" customHeight="1" thickTop="1"/>
-    <row r="10" spans="1:18" s="38" customFormat="1" ht="23">
+    <row r="10" spans="1:18" s="38" customFormat="1" ht="24">
       <c r="A10" s="32" t="s">
         <v>25</v>
       </c>
@@ -4676,18 +4539,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="38" customFormat="1" ht="69">
+    <row r="11" spans="1:18" s="38" customFormat="1" ht="72">
       <c r="A11" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>45</v>
@@ -4698,7 +4561,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="47"/>
@@ -4710,7 +4573,7 @@
       <c r="Q11" s="52"/>
       <c r="R11" s="50"/>
     </row>
-    <row r="12" spans="1:18" s="38" customFormat="1" ht="23">
+    <row r="12" spans="1:18" s="38" customFormat="1" ht="24">
       <c r="A12" s="39" t="s">
         <v>47</v>
       </c>
@@ -4718,7 +4581,7 @@
       <c r="C12" s="54"/>
       <c r="D12" s="55"/>
       <c r="E12" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
@@ -4738,7 +4601,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="50"/>
     </row>
-    <row r="13" spans="1:18" s="68" customFormat="1" ht="92">
+    <row r="13" spans="1:18" s="68" customFormat="1" ht="96">
       <c r="A13" s="58" t="s">
         <v>49</v>
       </c>
@@ -4746,7 +4609,7 @@
       <c r="C13" s="54"/>
       <c r="D13" s="55"/>
       <c r="E13" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -4754,7 +4617,7 @@
         <v>46</v>
       </c>
       <c r="I13" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
@@ -4766,7 +4629,7 @@
       <c r="Q13" s="67"/>
       <c r="R13" s="65"/>
     </row>
-    <row r="14" spans="1:18" s="68" customFormat="1" ht="34.5">
+    <row r="14" spans="1:18" s="68" customFormat="1" ht="36">
       <c r="A14" s="58" t="s">
         <v>50</v>
       </c>
@@ -4774,7 +4637,7 @@
       <c r="C14" s="54"/>
       <c r="D14" s="55"/>
       <c r="E14" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="71"/>
       <c r="G14" s="71"/>
@@ -4822,7 +4685,7 @@
       <c r="Q15" s="79"/>
       <c r="R15" s="79"/>
     </row>
-    <row r="16" spans="1:18" s="85" customFormat="1" ht="57.5">
+    <row r="16" spans="1:18" s="85" customFormat="1" ht="48">
       <c r="A16" s="58" t="s">
         <v>54</v>
       </c>
@@ -4832,15 +4695,15 @@
         <v>55</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="83"/>
       <c r="G16" s="83"/>
       <c r="H16" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
@@ -4852,23 +4715,23 @@
       <c r="Q16" s="66"/>
       <c r="R16" s="66"/>
     </row>
-    <row r="17" spans="1:18" s="85" customFormat="1" ht="57.5">
+    <row r="17" spans="1:18" s="85" customFormat="1" ht="48">
       <c r="A17" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
       <c r="D17" s="86"/>
       <c r="E17" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="83"/>
       <c r="G17" s="83"/>
       <c r="H17" s="83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
@@ -4880,23 +4743,23 @@
       <c r="Q17" s="66"/>
       <c r="R17" s="66"/>
     </row>
-    <row r="18" spans="1:18" s="85" customFormat="1" ht="57.5">
+    <row r="18" spans="1:18" s="85" customFormat="1" ht="48">
       <c r="A18" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="54"/>
       <c r="D18" s="86"/>
       <c r="E18" s="82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="83"/>
       <c r="G18" s="83"/>
       <c r="H18" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="84"/>
       <c r="K18" s="84"/>
@@ -4908,23 +4771,23 @@
       <c r="Q18" s="66"/>
       <c r="R18" s="66"/>
     </row>
-    <row r="19" spans="1:18" s="85" customFormat="1" ht="57.5">
+    <row r="19" spans="1:18" s="85" customFormat="1" ht="48">
       <c r="A19" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
       <c r="D19" s="86"/>
       <c r="E19" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="83"/>
       <c r="G19" s="83"/>
       <c r="H19" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="84"/>
       <c r="K19" s="84"/>
@@ -4936,15 +4799,15 @@
       <c r="Q19" s="66"/>
       <c r="R19" s="66"/>
     </row>
-    <row r="20" spans="1:18" s="85" customFormat="1" ht="23">
+    <row r="20" spans="1:18" s="85" customFormat="1" ht="24">
       <c r="A20" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="87"/>
       <c r="C20" s="88"/>
       <c r="D20" s="89"/>
       <c r="E20" s="90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" s="91"/>
       <c r="G20" s="91"/>
@@ -4964,25 +4827,25 @@
       <c r="Q20" s="93"/>
       <c r="R20" s="93"/>
     </row>
-    <row r="21" spans="1:18" ht="57.5">
+    <row r="21" spans="1:18" ht="48">
       <c r="A21" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="87"/>
       <c r="C21" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E21" s="94"/>
       <c r="F21" s="83"/>
       <c r="G21" s="83"/>
       <c r="H21" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J21" s="95"/>
       <c r="K21" s="95"/>
@@ -4994,23 +4857,23 @@
       <c r="Q21" s="95"/>
       <c r="R21" s="97"/>
     </row>
-    <row r="22" spans="1:18" s="85" customFormat="1" ht="57.5">
+    <row r="22" spans="1:18" s="85" customFormat="1" ht="48">
       <c r="A22" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
       <c r="D22" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="99"/>
       <c r="F22" s="83"/>
       <c r="G22" s="83"/>
       <c r="H22" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="93"/>
       <c r="K22" s="93"/>
@@ -5022,23 +4885,23 @@
       <c r="Q22" s="66"/>
       <c r="R22" s="100"/>
     </row>
-    <row r="23" spans="1:18" ht="57.5">
+    <row r="23" spans="1:18" ht="60">
       <c r="A23" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
       <c r="D23" s="98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="94"/>
       <c r="F23" s="83"/>
       <c r="G23" s="83"/>
       <c r="H23" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I23" s="101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="102"/>
       <c r="K23" s="103"/>
@@ -5050,23 +4913,23 @@
       <c r="Q23" s="95"/>
       <c r="R23" s="97"/>
     </row>
-    <row r="24" spans="1:18" ht="57.5">
+    <row r="24" spans="1:18" ht="60">
       <c r="A24" s="58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="54"/>
       <c r="C24" s="107"/>
       <c r="D24" s="108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="94"/>
       <c r="F24" s="83"/>
       <c r="G24" s="83"/>
       <c r="H24" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J24" s="102"/>
       <c r="K24" s="103"/>
@@ -5078,29 +4941,29 @@
       <c r="Q24" s="95"/>
       <c r="R24" s="97"/>
     </row>
-    <row r="25" spans="1:18" s="85" customFormat="1" ht="69">
+    <row r="25" spans="1:18" s="85" customFormat="1" ht="72">
       <c r="A25" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="110" t="s">
         <v>74</v>
-      </c>
-      <c r="D25" s="110" t="s">
-        <v>75</v>
       </c>
       <c r="E25" s="111"/>
       <c r="F25" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="83" t="s">
         <v>76</v>
-      </c>
-      <c r="G25" s="83" t="s">
-        <v>77</v>
       </c>
       <c r="H25" s="83" t="s">
         <v>46</v>
       </c>
       <c r="I25" s="83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J25" s="66"/>
       <c r="K25" s="66"/>
@@ -5114,14 +4977,14 @@
     </row>
     <row r="26" spans="1:18" s="85" customFormat="1">
       <c r="A26" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="109" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="99"/>
       <c r="F26" s="83"/>
@@ -5130,7 +4993,7 @@
         <v>46</v>
       </c>
       <c r="I26" s="83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J26" s="66"/>
       <c r="K26" s="66"/>
@@ -5153,6 +5016,5 @@
     <ignoredError sqref="A11:A12 A13:A14" twoDigitTextYear="1"/>
     <ignoredError sqref="M13:M14 M16:M20 M25:M26 M22" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>